--- a/regions/5/transporti da kavshirgabmuloba/transporti da dasawyobeba.xlsx
+++ b/regions/5/transporti da kavshirgabmuloba/transporti da dasawyobeba.xlsx
@@ -67,11 +67,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -614,13 +614,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P32"/>
+  <dimension ref="A1:R32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:P1"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" sqref="A1:P1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="74.42578125" customWidth="1"/>
     <col min="2" max="2" width="9.28515625" customWidth="1"/>
@@ -630,7 +633,7 @@
     <col min="6" max="6" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="23" customFormat="1">
+    <row r="1" spans="1:18" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="41" t="s">
         <v>14</v>
       </c>
@@ -650,7 +653,7 @@
       <c r="O1" s="41"/>
       <c r="P1" s="41"/>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -668,7 +671,7 @@
       <c r="O2" s="7"/>
       <c r="P2" s="7"/>
     </row>
-    <row r="3" spans="1:16" ht="15.75">
+    <row r="3" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A3" s="19"/>
       <c r="B3" s="8">
         <v>2006</v>
@@ -715,8 +718,14 @@
       <c r="P3" s="17">
         <v>2020</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" ht="15.75">
+      <c r="Q3" s="17">
+        <v>2021</v>
+      </c>
+      <c r="R3" s="17">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A4" s="19" t="s">
         <v>0</v>
       </c>
@@ -765,8 +774,14 @@
       <c r="P4" s="24">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" ht="15.75">
+      <c r="Q4" s="24">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="R4" s="24">
+        <v>29.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A5" s="19" t="s">
         <v>1</v>
       </c>
@@ -815,8 +830,14 @@
       <c r="P5" s="24">
         <v>14.8</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" ht="15.75">
+      <c r="Q5" s="24">
+        <v>20.6</v>
+      </c>
+      <c r="R5" s="24">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A6" s="19" t="s">
         <v>8</v>
       </c>
@@ -865,8 +886,14 @@
       <c r="P6" s="30">
         <v>630</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" ht="15.75">
+      <c r="Q6" s="30">
+        <v>830</v>
+      </c>
+      <c r="R6" s="30">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A7" s="19" t="s">
         <v>9</v>
       </c>
@@ -915,8 +942,14 @@
       <c r="P7" s="30">
         <v>472</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" s="18" customFormat="1">
+      <c r="Q7" s="30">
+        <v>487</v>
+      </c>
+      <c r="R7" s="30">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="20" t="s">
         <v>15</v>
       </c>
@@ -965,8 +998,14 @@
       <c r="P8" s="24">
         <v>233</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" ht="15.75">
+      <c r="Q8" s="24">
+        <v>351.9</v>
+      </c>
+      <c r="R8" s="24">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A9" s="19" t="s">
         <v>2</v>
       </c>
@@ -1015,8 +1054,14 @@
       <c r="P9" s="24">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" ht="15.75">
+      <c r="Q9" s="24">
+        <v>11.1</v>
+      </c>
+      <c r="R9" s="24">
+        <v>13.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A10" s="19" t="s">
         <v>3</v>
       </c>
@@ -1065,8 +1110,14 @@
       <c r="P10" s="24">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" ht="15.75">
+      <c r="Q10" s="24">
+        <v>2.1</v>
+      </c>
+      <c r="R10" s="24">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A11" s="19" t="s">
         <v>4</v>
       </c>
@@ -1115,8 +1166,14 @@
       <c r="P11" s="24">
         <v>6.8</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" ht="15.75">
+      <c r="Q11" s="24">
+        <v>9.6</v>
+      </c>
+      <c r="R11" s="24">
+        <v>18.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A12" s="19" t="s">
         <v>10</v>
       </c>
@@ -1165,8 +1222,14 @@
       <c r="P12" s="24">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" ht="15.75">
+      <c r="Q12" s="24">
+        <v>0.3</v>
+      </c>
+      <c r="R12" s="24">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A13" s="19" t="s">
         <v>5</v>
       </c>
@@ -1215,8 +1278,14 @@
       <c r="P13" s="24">
         <v>7.9</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" s="18" customFormat="1">
+      <c r="Q13" s="24">
+        <v>11.2</v>
+      </c>
+      <c r="R13" s="24">
+        <v>13.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="20" t="s">
         <v>11</v>
       </c>
@@ -1265,8 +1334,14 @@
       <c r="P14" s="24">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" ht="15.75">
+      <c r="Q14" s="24">
+        <v>0</v>
+      </c>
+      <c r="R14" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A15" s="21"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -1284,14 +1359,14 @@
       <c r="O15" s="7"/>
       <c r="P15" s="7"/>
     </row>
-    <row r="16" spans="1:16" s="6" customFormat="1">
+    <row r="16" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="22" t="s">
         <v>12</v>
       </c>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
     </row>
-    <row r="17" spans="1:16" s="6" customFormat="1">
+    <row r="17" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="22" t="s">
         <v>13</v>
       </c>
@@ -1299,7 +1374,7 @@
       <c r="C17" s="12"/>
       <c r="D17" s="13"/>
     </row>
-    <row r="18" spans="1:16" ht="15.75">
+    <row r="18" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A18" s="21"/>
       <c r="B18" s="14"/>
       <c r="C18" s="15"/>
@@ -1317,78 +1392,78 @@
       <c r="O18" s="7"/>
       <c r="P18" s="7"/>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B19" s="3"/>
       <c r="C19" s="1"/>
       <c r="D19" s="2"/>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B20" s="3"/>
       <c r="C20" s="1"/>
       <c r="D20" s="2"/>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="2"/>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>
       <c r="C22" s="3"/>
       <c r="D22" s="2"/>
       <c r="E22" s="3"/>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B23" s="4"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B24" s="4"/>
       <c r="C24" s="2"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B25" s="4"/>
       <c r="C25" s="5"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B26" s="4"/>
       <c r="C26" s="5"/>
       <c r="D26" s="4"/>
       <c r="E26" s="5"/>
     </row>
-    <row r="27" spans="1:16">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B27" s="4"/>
       <c r="C27" s="5"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
     </row>
-    <row r="28" spans="1:16">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
       <c r="D28" s="5"/>
     </row>
-    <row r="29" spans="1:16">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
     </row>
-    <row r="30" spans="1:16">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
     </row>
-    <row r="31" spans="1:16">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
     </row>
-    <row r="32" spans="1:16">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
     </row>

--- a/regions/5/transporti da kavshirgabmuloba/transporti da dasawyobeba.xlsx
+++ b/regions/5/transporti da kavshirgabmuloba/transporti da dasawyobeba.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24228"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3716F6D-D58A-47F7-85EE-4BC4E3E99980}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="2955" windowWidth="22230" windowHeight="6240"/>
+    <workbookView xWindow="615" yWindow="2280" windowWidth="14265" windowHeight="9855" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -67,11 +68,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -211,7 +212,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -219,24 +220,17 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -245,14 +239,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -403,6 +391,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -438,6 +443,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -613,17 +635,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:S32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:P1"/>
+      <selection pane="bottomRight" activeCell="S4" sqref="S4:S14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="74.42578125" customWidth="1"/>
     <col min="2" max="2" width="9.28515625" customWidth="1"/>
@@ -633,839 +655,830 @@
     <col min="6" max="6" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+    <row r="1" spans="1:19" s="18" customFormat="1">
+      <c r="A1" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
-      <c r="P1" s="41"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-    </row>
-    <row r="3" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="19"/>
-      <c r="B3" s="8">
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+    </row>
+    <row r="3" spans="1:19" ht="15.75">
+      <c r="A3" s="14"/>
+      <c r="B3" s="6">
         <v>2006</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="6">
         <v>2007</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="6">
         <v>2008</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="6">
         <v>2009</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="6">
         <v>2010</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="7">
         <v>2011</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="7">
         <v>2012</v>
       </c>
-      <c r="I3" s="9">
+      <c r="I3" s="7">
         <v>2013</v>
       </c>
-      <c r="J3" s="10">
+      <c r="J3" s="8">
         <v>2014</v>
       </c>
-      <c r="K3" s="10">
+      <c r="K3" s="8">
         <v>2015</v>
       </c>
-      <c r="L3" s="17">
+      <c r="L3" s="7">
         <v>2016</v>
       </c>
-      <c r="M3" s="17">
+      <c r="M3" s="7">
         <v>2017</v>
       </c>
-      <c r="N3" s="17">
+      <c r="N3" s="7">
         <v>2018</v>
       </c>
-      <c r="O3" s="17">
+      <c r="O3" s="7">
         <v>2019</v>
       </c>
-      <c r="P3" s="17">
+      <c r="P3" s="7">
         <v>2020</v>
       </c>
-      <c r="Q3" s="17">
+      <c r="Q3" s="7">
         <v>2021</v>
       </c>
-      <c r="R3" s="17">
+      <c r="R3" s="7">
         <v>2022</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="19" t="s">
+      <c r="S3" s="7">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="15.75">
+      <c r="A4" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="24">
+      <c r="B4" s="19">
         <v>0.83567999999999998</v>
       </c>
-      <c r="C4" s="24">
+      <c r="C4" s="19">
         <v>0.81923999999999997</v>
       </c>
-      <c r="D4" s="24">
+      <c r="D4" s="19">
         <v>1.1605399999999999</v>
       </c>
-      <c r="E4" s="24">
+      <c r="E4" s="19">
         <v>1.88774</v>
       </c>
-      <c r="F4" s="24">
+      <c r="F4" s="19">
         <v>0.97124999999999995</v>
       </c>
-      <c r="G4" s="24">
+      <c r="G4" s="19">
         <v>1.8818900000000001</v>
       </c>
-      <c r="H4" s="25">
+      <c r="H4" s="20">
         <v>3.3</v>
       </c>
-      <c r="I4" s="25">
+      <c r="I4" s="20">
         <v>4.0999999999999996</v>
       </c>
-      <c r="J4" s="26">
+      <c r="J4" s="21">
         <v>4.2359</v>
       </c>
-      <c r="K4" s="26">
+      <c r="K4" s="21">
         <v>7.1210000000000004</v>
       </c>
-      <c r="L4" s="27">
+      <c r="L4" s="22">
         <v>12.3</v>
       </c>
-      <c r="M4" s="24">
+      <c r="M4" s="19">
         <v>24.178280000000001</v>
       </c>
-      <c r="N4" s="24">
+      <c r="N4" s="19">
         <v>8.7369500000000002</v>
       </c>
-      <c r="O4" s="24">
+      <c r="O4" s="19">
         <v>11.8</v>
       </c>
-      <c r="P4" s="24">
+      <c r="P4" s="19">
         <v>13</v>
       </c>
-      <c r="Q4" s="24">
+      <c r="Q4" s="19">
         <v>18.899999999999999</v>
       </c>
-      <c r="R4" s="24">
+      <c r="R4" s="19">
         <v>29.1</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="19" t="s">
+      <c r="S4" s="19">
+        <v>48.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="15.75">
+      <c r="A5" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="24">
+      <c r="B5" s="19">
         <v>1.0356799999999999</v>
       </c>
-      <c r="C5" s="24">
+      <c r="C5" s="19">
         <v>0.99329000000000001</v>
       </c>
-      <c r="D5" s="24">
+      <c r="D5" s="19">
         <v>1.1605399999999999</v>
       </c>
-      <c r="E5" s="24">
+      <c r="E5" s="19">
         <v>0.27921000000000001</v>
       </c>
-      <c r="F5" s="24">
+      <c r="F5" s="19">
         <v>0.97124999999999995</v>
       </c>
-      <c r="G5" s="24">
+      <c r="G5" s="19">
         <v>1.8818900000000001</v>
       </c>
-      <c r="H5" s="28">
+      <c r="H5" s="23">
         <v>4.5</v>
       </c>
-      <c r="I5" s="28">
+      <c r="I5" s="23">
         <v>6.4</v>
       </c>
-      <c r="J5" s="27">
+      <c r="J5" s="22">
         <v>6.5</v>
       </c>
-      <c r="K5" s="27">
+      <c r="K5" s="22">
         <v>7.7</v>
       </c>
-      <c r="L5" s="27">
+      <c r="L5" s="22">
         <v>15.5</v>
       </c>
-      <c r="M5" s="24">
+      <c r="M5" s="19">
         <v>25.540410000000001</v>
       </c>
-      <c r="N5" s="24">
+      <c r="N5" s="19">
         <v>11.33746</v>
       </c>
-      <c r="O5" s="29">
+      <c r="O5" s="24">
         <v>13.2</v>
       </c>
-      <c r="P5" s="24">
+      <c r="P5" s="19">
         <v>14.8</v>
       </c>
-      <c r="Q5" s="24">
+      <c r="Q5" s="19">
         <v>20.6</v>
       </c>
-      <c r="R5" s="24">
+      <c r="R5" s="19">
         <v>32</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="19" t="s">
+      <c r="S5" s="19">
+        <v>49.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="15.75">
+      <c r="A6" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="30">
+      <c r="B6" s="25">
         <v>357</v>
       </c>
-      <c r="C6" s="30">
+      <c r="C6" s="25">
         <v>367.92858000000001</v>
       </c>
-      <c r="D6" s="30">
+      <c r="D6" s="25">
         <v>457.16665999999998</v>
       </c>
-      <c r="E6" s="30">
+      <c r="E6" s="25">
         <v>81</v>
       </c>
-      <c r="F6" s="30">
+      <c r="F6" s="25">
         <v>226</v>
       </c>
-      <c r="G6" s="30">
+      <c r="G6" s="25">
         <v>448.67930999999999</v>
       </c>
-      <c r="H6" s="25">
+      <c r="H6" s="20">
         <v>267</v>
       </c>
-      <c r="I6" s="25">
+      <c r="I6" s="20">
         <v>310</v>
       </c>
-      <c r="J6" s="27">
+      <c r="J6" s="22">
         <v>276</v>
       </c>
-      <c r="K6" s="27">
+      <c r="K6" s="22">
         <v>417</v>
       </c>
-      <c r="L6" s="27">
+      <c r="L6" s="22">
         <v>505</v>
       </c>
-      <c r="M6" s="30">
+      <c r="M6" s="25">
         <v>514.68724999999995</v>
       </c>
-      <c r="N6" s="30">
+      <c r="N6" s="25">
         <v>584.98069999999996</v>
       </c>
-      <c r="O6" s="29">
+      <c r="O6" s="24">
         <v>786</v>
       </c>
-      <c r="P6" s="30">
+      <c r="P6" s="25">
         <v>630</v>
       </c>
-      <c r="Q6" s="30">
+      <c r="Q6" s="25">
         <v>830</v>
       </c>
-      <c r="R6" s="30">
+      <c r="R6" s="25">
         <v>841</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="19" t="s">
+      <c r="S6" s="25">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="15.75">
+      <c r="A7" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="30">
+      <c r="B7" s="25">
         <v>343</v>
       </c>
-      <c r="C7" s="30">
+      <c r="C7" s="25">
         <v>349.5</v>
       </c>
-      <c r="D7" s="30">
+      <c r="D7" s="25">
         <v>454.16665999999998</v>
       </c>
-      <c r="E7" s="30">
+      <c r="E7" s="25">
         <v>80</v>
       </c>
-      <c r="F7" s="30">
+      <c r="F7" s="25">
         <v>210.5</v>
       </c>
-      <c r="G7" s="30">
+      <c r="G7" s="25">
         <v>413.17135000000002</v>
       </c>
-      <c r="H7" s="25">
+      <c r="H7" s="20">
         <v>259</v>
       </c>
-      <c r="I7" s="25">
+      <c r="I7" s="20">
         <v>287</v>
       </c>
-      <c r="J7" s="27">
+      <c r="J7" s="22">
         <v>258</v>
       </c>
-      <c r="K7" s="27">
+      <c r="K7" s="22">
         <v>383</v>
       </c>
-      <c r="L7" s="27">
+      <c r="L7" s="22">
         <v>376</v>
       </c>
-      <c r="M7" s="30">
+      <c r="M7" s="25">
         <v>426.94632000000001</v>
       </c>
-      <c r="N7" s="30">
+      <c r="N7" s="25">
         <v>507.66307999999998</v>
       </c>
-      <c r="O7" s="29">
+      <c r="O7" s="24">
         <v>556</v>
       </c>
-      <c r="P7" s="30">
+      <c r="P7" s="25">
         <v>472</v>
       </c>
-      <c r="Q7" s="30">
+      <c r="Q7" s="25">
         <v>487</v>
       </c>
-      <c r="R7" s="30">
+      <c r="R7" s="25">
         <v>564</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="20" t="s">
+      <c r="S7" s="25">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" s="13" customFormat="1">
+      <c r="A8" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="31">
+      <c r="B8" s="26">
         <v>58.714770999999999</v>
       </c>
-      <c r="C8" s="31">
+      <c r="C8" s="26">
         <v>83.071769000000003</v>
       </c>
-      <c r="D8" s="31">
+      <c r="D8" s="26">
         <v>70.044128999999998</v>
       </c>
-      <c r="E8" s="31">
+      <c r="E8" s="26">
         <v>159.90312499999999</v>
       </c>
-      <c r="F8" s="31">
+      <c r="F8" s="26">
         <v>132.32877999999999</v>
       </c>
-      <c r="G8" s="31">
+      <c r="G8" s="26">
         <v>234.475706</v>
       </c>
-      <c r="H8" s="32">
+      <c r="H8" s="27">
         <v>408.1</v>
       </c>
-      <c r="I8" s="32">
+      <c r="I8" s="27">
         <v>561.20000000000005</v>
       </c>
-      <c r="J8" s="33">
+      <c r="J8" s="28">
         <v>541.29999999999995</v>
       </c>
-      <c r="K8" s="33">
+      <c r="K8" s="28">
         <v>285.39999999999998</v>
       </c>
-      <c r="L8" s="34">
+      <c r="L8" s="29">
         <v>547.6</v>
       </c>
-      <c r="M8" s="31">
+      <c r="M8" s="26">
         <v>607.84606099999996</v>
       </c>
-      <c r="N8" s="31">
+      <c r="N8" s="26">
         <v>364.05945700000001</v>
       </c>
-      <c r="O8" s="35">
+      <c r="O8" s="30">
         <v>390.4</v>
       </c>
-      <c r="P8" s="24">
+      <c r="P8" s="19">
         <v>233</v>
       </c>
-      <c r="Q8" s="24">
+      <c r="Q8" s="19">
         <v>351.9</v>
       </c>
-      <c r="R8" s="24">
+      <c r="R8" s="19">
         <v>335</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="19" t="s">
+      <c r="S8" s="19">
+        <v>670.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="15.75">
+      <c r="A9" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="24">
+      <c r="B9" s="19">
         <v>0.31051000000000001</v>
       </c>
-      <c r="C9" s="24">
+      <c r="C9" s="19">
         <v>0.46572000000000002</v>
       </c>
-      <c r="D9" s="24">
+      <c r="D9" s="19">
         <v>0.56960999999999995</v>
       </c>
-      <c r="E9" s="24">
+      <c r="E9" s="19">
         <v>6.6540000000000002E-2</v>
       </c>
-      <c r="F9" s="24">
+      <c r="F9" s="19">
         <v>0.42153000000000002</v>
       </c>
-      <c r="G9" s="24">
+      <c r="G9" s="19">
         <v>0.74441999999999997</v>
       </c>
-      <c r="H9" s="25">
+      <c r="H9" s="20">
         <v>1.9</v>
       </c>
-      <c r="I9" s="25">
+      <c r="I9" s="20">
         <v>2.7</v>
       </c>
-      <c r="J9" s="26">
+      <c r="J9" s="21">
         <v>2.9925999999999999</v>
       </c>
-      <c r="K9" s="26">
+      <c r="K9" s="21">
         <v>2.8786999999999998</v>
       </c>
-      <c r="L9" s="27">
+      <c r="L9" s="22">
         <v>6.7</v>
       </c>
-      <c r="M9" s="24">
+      <c r="M9" s="19">
         <v>14.16089</v>
       </c>
-      <c r="N9" s="24">
+      <c r="N9" s="19">
         <v>5.6197400000000002</v>
       </c>
-      <c r="O9" s="29">
+      <c r="O9" s="24">
         <v>5.0999999999999996</v>
       </c>
-      <c r="P9" s="24">
+      <c r="P9" s="19">
         <v>8</v>
       </c>
-      <c r="Q9" s="24">
+      <c r="Q9" s="19">
         <v>11.1</v>
       </c>
-      <c r="R9" s="24">
+      <c r="R9" s="19">
         <v>13.8</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="19" t="s">
+      <c r="S9" s="19">
+        <v>14.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="15.75">
+      <c r="A10" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="24">
+      <c r="B10" s="19">
         <v>0.29281000000000001</v>
       </c>
-      <c r="C10" s="24">
+      <c r="C10" s="19">
         <v>0.42101</v>
       </c>
-      <c r="D10" s="24">
+      <c r="D10" s="19">
         <v>0.38174000000000002</v>
       </c>
-      <c r="E10" s="24">
+      <c r="E10" s="19">
         <v>0.15351999999999999</v>
       </c>
-      <c r="F10" s="24">
+      <c r="F10" s="19">
         <v>0.33427000000000001</v>
       </c>
-      <c r="G10" s="24">
+      <c r="G10" s="19">
         <v>1.16255</v>
       </c>
-      <c r="H10" s="25">
+      <c r="H10" s="20">
         <v>1.3</v>
       </c>
-      <c r="I10" s="28">
+      <c r="I10" s="23">
         <v>2</v>
       </c>
-      <c r="J10" s="26">
+      <c r="J10" s="21">
         <v>1.675</v>
       </c>
-      <c r="K10" s="26">
+      <c r="K10" s="21">
         <v>1.337</v>
       </c>
-      <c r="L10" s="27">
+      <c r="L10" s="22">
         <v>2.5</v>
       </c>
-      <c r="M10" s="24">
+      <c r="M10" s="19">
         <v>3.1142099999999999</v>
       </c>
-      <c r="N10" s="24">
+      <c r="N10" s="19">
         <v>2.2178300000000002</v>
       </c>
-      <c r="O10" s="29">
+      <c r="O10" s="24">
         <v>2.6</v>
       </c>
-      <c r="P10" s="24">
+      <c r="P10" s="19">
         <v>1.4</v>
       </c>
-      <c r="Q10" s="24">
+      <c r="Q10" s="19">
         <v>2.1</v>
       </c>
-      <c r="R10" s="24">
+      <c r="R10" s="19">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="19" t="s">
+      <c r="S10" s="19">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="15.75">
+      <c r="A11" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="24">
+      <c r="B11" s="19">
         <v>0.72516000000000003</v>
       </c>
-      <c r="C11" s="24">
+      <c r="C11" s="19">
         <v>0.52756000000000003</v>
       </c>
-      <c r="D11" s="24">
+      <c r="D11" s="19">
         <v>0.59092999999999996</v>
       </c>
-      <c r="E11" s="24">
+      <c r="E11" s="19">
         <v>0.21267</v>
       </c>
-      <c r="F11" s="24">
+      <c r="F11" s="19">
         <v>0.54973000000000005</v>
       </c>
-      <c r="G11" s="24">
+      <c r="G11" s="19">
         <v>1.13748</v>
       </c>
-      <c r="H11" s="25">
+      <c r="H11" s="20">
         <v>2.6</v>
       </c>
-      <c r="I11" s="25">
+      <c r="I11" s="20">
         <v>3.7</v>
       </c>
-      <c r="J11" s="26">
+      <c r="J11" s="21">
         <v>3.5501999999999998</v>
       </c>
-      <c r="K11" s="26">
+      <c r="K11" s="21">
         <v>4.8356000000000003</v>
       </c>
-      <c r="L11" s="26">
+      <c r="L11" s="21">
         <v>8.9</v>
       </c>
-      <c r="M11" s="24">
+      <c r="M11" s="19">
         <v>11.37951</v>
       </c>
-      <c r="N11" s="24">
+      <c r="N11" s="19">
         <v>5.7177100000000003</v>
       </c>
-      <c r="O11" s="29">
+      <c r="O11" s="24">
         <v>8.1</v>
       </c>
-      <c r="P11" s="24">
+      <c r="P11" s="19">
         <v>6.8</v>
       </c>
-      <c r="Q11" s="24">
+      <c r="Q11" s="19">
         <v>9.6</v>
       </c>
-      <c r="R11" s="24">
+      <c r="R11" s="19">
         <v>18.2</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="19" t="s">
+      <c r="S11" s="19">
+        <v>35.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="15.75">
+      <c r="A12" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="24">
+      <c r="B12" s="19">
         <v>0</v>
       </c>
-      <c r="C12" s="24">
+      <c r="C12" s="19">
         <v>4.3479999999999998E-2</v>
       </c>
-      <c r="D12" s="24">
+      <c r="D12" s="19">
         <v>2.2899999999999999E-3</v>
       </c>
-      <c r="E12" s="24">
+      <c r="E12" s="19">
         <v>9.7800000000000005E-3</v>
       </c>
-      <c r="F12" s="24">
+      <c r="F12" s="19">
         <v>9.5363900000000008</v>
       </c>
-      <c r="G12" s="24">
+      <c r="G12" s="19">
         <v>8.3970000000000003E-2</v>
       </c>
-      <c r="H12" s="25">
+      <c r="H12" s="20">
         <v>0.1</v>
       </c>
-      <c r="I12" s="25">
+      <c r="I12" s="20">
         <v>8.9</v>
       </c>
-      <c r="J12" s="26">
+      <c r="J12" s="21">
         <v>1.9260999999999999</v>
       </c>
-      <c r="K12" s="26">
+      <c r="K12" s="21">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="L12" s="27">
+      <c r="L12" s="22">
         <v>3.1</v>
       </c>
-      <c r="M12" s="24">
+      <c r="M12" s="19">
         <v>0.34794000000000003</v>
       </c>
-      <c r="N12" s="24">
+      <c r="N12" s="19">
         <v>0.76319999999999999</v>
       </c>
-      <c r="O12" s="29">
+      <c r="O12" s="24">
         <v>0.3</v>
       </c>
-      <c r="P12" s="24">
+      <c r="P12" s="19">
         <v>1.8</v>
       </c>
-      <c r="Q12" s="24">
+      <c r="Q12" s="19">
         <v>0.3</v>
       </c>
-      <c r="R12" s="24">
+      <c r="R12" s="19">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="19" t="s">
+      <c r="S12" s="19">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="15.75">
+      <c r="A13" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="36" t="s">
+      <c r="B13" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="24">
+      <c r="C13" s="19">
         <v>0.44244</v>
       </c>
-      <c r="D13" s="24">
+      <c r="D13" s="19">
         <v>0.56657999999999997</v>
       </c>
-      <c r="E13" s="24">
+      <c r="E13" s="19">
         <v>1.6804600000000001</v>
       </c>
-      <c r="F13" s="24">
+      <c r="F13" s="19">
         <v>0.42131000000000002</v>
       </c>
-      <c r="G13" s="24">
+      <c r="G13" s="19">
         <v>0.85640000000000005</v>
       </c>
-      <c r="H13" s="25">
+      <c r="H13" s="20">
         <v>1.9</v>
       </c>
-      <c r="I13" s="25">
+      <c r="I13" s="20">
         <v>1.9</v>
       </c>
-      <c r="J13" s="28">
+      <c r="J13" s="23">
         <v>3.1475</v>
       </c>
-      <c r="K13" s="28">
+      <c r="K13" s="23">
         <v>3.0799000000000003</v>
       </c>
-      <c r="L13" s="25">
+      <c r="L13" s="20">
         <v>7.2</v>
       </c>
-      <c r="M13" s="24">
+      <c r="M13" s="19">
         <v>14.05674</v>
       </c>
-      <c r="N13" s="24">
+      <c r="N13" s="19">
         <v>5.5908499999999997</v>
       </c>
-      <c r="O13" s="37">
+      <c r="O13" s="32">
         <v>5</v>
       </c>
-      <c r="P13" s="24">
+      <c r="P13" s="19">
         <v>7.9</v>
       </c>
-      <c r="Q13" s="24">
+      <c r="Q13" s="19">
         <v>11.2</v>
       </c>
-      <c r="R13" s="24">
+      <c r="R13" s="19">
         <v>13.6</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="20" t="s">
+      <c r="S13" s="19">
+        <v>14.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" s="13" customFormat="1">
+      <c r="A14" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="36" t="s">
+      <c r="B14" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="31">
+      <c r="C14" s="26">
         <v>0</v>
       </c>
-      <c r="D14" s="31">
+      <c r="D14" s="26">
         <v>0</v>
       </c>
-      <c r="E14" s="31">
+      <c r="E14" s="26">
         <v>1.6179699999999999</v>
       </c>
-      <c r="F14" s="31">
+      <c r="F14" s="26">
         <v>0</v>
       </c>
-      <c r="G14" s="31">
+      <c r="G14" s="26">
         <v>0</v>
       </c>
-      <c r="H14" s="32" t="s">
+      <c r="H14" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="I14" s="32" t="s">
+      <c r="I14" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="J14" s="38">
+      <c r="J14" s="33">
         <v>4.7000000000000002E-3</v>
       </c>
-      <c r="K14" s="33">
+      <c r="K14" s="28">
         <v>0.31569999999999998</v>
       </c>
-      <c r="L14" s="32" t="s">
+      <c r="L14" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="M14" s="39" t="s">
+      <c r="M14" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="N14" s="31">
+      <c r="N14" s="26">
         <v>2.4809999999999999E-2</v>
       </c>
-      <c r="O14" s="40">
+      <c r="O14" s="35">
         <v>0</v>
       </c>
-      <c r="P14" s="24">
+      <c r="P14" s="19">
         <v>0</v>
       </c>
-      <c r="Q14" s="24">
+      <c r="Q14" s="19">
         <v>0</v>
       </c>
-      <c r="R14" s="24">
+      <c r="R14" s="19">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="21"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="7"/>
-    </row>
-    <row r="16" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="22" t="s">
+      <c r="S14" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="15.75">
+      <c r="A15" s="16"/>
+    </row>
+    <row r="16" spans="1:19" s="5" customFormat="1">
+      <c r="A16" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-    </row>
-    <row r="17" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="22" t="s">
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+    </row>
+    <row r="17" spans="1:5" s="5" customFormat="1">
+      <c r="A17" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="13"/>
-    </row>
-    <row r="18" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="21"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
-      <c r="N18" s="7"/>
-      <c r="O18" s="7"/>
-      <c r="P18" s="7"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B19" s="3"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="10"/>
+    </row>
+    <row r="18" spans="1:5" ht="15.75">
+      <c r="A18" s="16"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="12"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="2"/>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B20" s="3"/>
+    <row r="20" spans="1:5">
+      <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="2"/>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
+    <row r="21" spans="1:5">
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
       <c r="D21" s="2"/>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5">
       <c r="B22" s="2"/>
-      <c r="C22" s="3"/>
+      <c r="C22" s="1"/>
       <c r="D22" s="2"/>
-      <c r="E22" s="3"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B23" s="4"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B24" s="4"/>
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="B23" s="3"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="B24" s="3"/>
       <c r="C24" s="2"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B25" s="4"/>
-      <c r="C25" s="5"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="B25" s="3"/>
+      <c r="C25" s="4"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B26" s="4"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="5"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B27" s="4"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="5"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
+    <row r="26" spans="1:5">
+      <c r="B26" s="3"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="4"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="B27" s="3"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="4"/>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
